--- a/data_output/output for F24 stiff 2018-02-12/all_stiff_output_20180212_1349 SOL.xlsx
+++ b/data_output/output for F24 stiff 2018-02-12/all_stiff_output_20180212_1349 SOL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\output for F24 stiff 2018-02-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -153,8 +153,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -182,8 +190,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ81"/>
+  <dimension ref="A1:AJ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:AJ81"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5453,7 +5462,7 @@
       <c r="J46">
         <v>0.98436492498267925</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>1750</v>
       </c>
       <c r="L46">
@@ -5554,7 +5563,7 @@
       <c r="J47">
         <v>0.99743653651183906</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>1750</v>
       </c>
       <c r="L47">
@@ -5667,7 +5676,7 @@
       <c r="K48">
         <v>1950</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="1">
         <v>2206.8980363454461</v>
       </c>
       <c r="M48">
@@ -9364,7 +9373,25 @@
         <v>0.54710999999999999</v>
       </c>
     </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <f>MIN(L2:L81)</f>
+        <v>2206.8980363454461</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J81">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>